--- a/status.xlsx
+++ b/status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\megha\cdackpblr\Advanced Java\Assignment\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projectGit\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883472BA-112F-4AAE-8B25-CBBD0B96C218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7D831-5828-4C5B-BD7C-3608E3FD86FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Presentation Layer</t>
   </si>
@@ -193,7 +193,108 @@
     <t>if status is 0 then insert failed</t>
   </si>
   <si>
-    <t>if status is 1 then insert failed</t>
+    <t>Response from service will be returned</t>
+  </si>
+  <si>
+    <t>Customer object(custid,custname,age)</t>
+  </si>
+  <si>
+    <t>customer object</t>
+  </si>
+  <si>
+    <t>updaterecord(),insertrecord(),</t>
+  </si>
+  <si>
+    <t>selectrec(),</t>
+  </si>
+  <si>
+    <t>update query for customer table with col name</t>
+  </si>
+  <si>
+    <t>custid,custname,age</t>
+  </si>
+  <si>
+    <t>and insert query for customer</t>
+  </si>
+  <si>
+    <t>updatect,insertct</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{
+    "customerno": 1008,
+    "customerage": 75,
+    "customername": "Suresh Singh"
+} for insertrecord() command</t>
+  </si>
+  <si>
+    <t>{
+    "customerno": 1008,
+    "customerage": 75,
+    "customername": "Suresh Singh"
+} after selectrecord() command</t>
+  </si>
+  <si>
+    <t>Merchant_id ,Merchant_name</t>
+  </si>
+  <si>
+    <t>Merchant objecct inserted,</t>
+  </si>
+  <si>
+    <t>Product id,Merchant_address,</t>
+  </si>
+  <si>
+    <t>Merchant_mobile</t>
+  </si>
+  <si>
+    <t>if status is 1 then insert succeed</t>
+  </si>
+  <si>
+    <t>Merchant object(merid,mername,meraddress,mermobile)</t>
+  </si>
+  <si>
+    <t>merchant object</t>
+  </si>
+  <si>
+    <t>insert query for table merchants with coloumn names</t>
+  </si>
+  <si>
+    <t>merchant_id,merchant_name,product_id,merchant_address,</t>
+  </si>
+  <si>
+    <t>merchant_mobile</t>
+  </si>
+  <si>
+    <t>query to be used is insert new merchants,update merchant_address</t>
+  </si>
+  <si>
+    <t>,merchant_mobile,select certain merchants based on product_id</t>
+  </si>
+  <si>
+    <t>insert,update,</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t>{"merchant_id":"M001","merchant_name"</t>
+  </si>
+  <si>
+    <t>:"shivesh","product_id":"P001","merchant_</t>
+  </si>
+  <si>
+    <t>address":"Delhi","merchant_mobile":</t>
+  </si>
+  <si>
+    <t>obile":2145</t>
+  </si>
+  <si>
+    <t>83647}for insert</t>
+  </si>
+  <si>
+    <t>{"merchant_id":"M001","merchant_name","mobile no":9866"</t>
   </si>
 </sst>
 </file>
@@ -538,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AM21"/>
+  <dimension ref="B3:AM32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -552,8 +653,8 @@
     <col min="16" max="16" width="20.33203125" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
     <col min="36" max="36" width="27.6640625" customWidth="1"/>
-    <col min="38" max="38" width="1.109375" customWidth="1"/>
-    <col min="39" max="39" width="9.21875" customWidth="1"/>
+    <col min="38" max="38" width="0.5546875" customWidth="1"/>
+    <col min="39" max="39" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:39">
@@ -779,12 +880,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:39">
       <c r="Y17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:25">
+    <row r="18" spans="2:39" ht="244.8">
+      <c r="T18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39">
+      <c r="P19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -794,10 +932,100 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:25">
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39">
       <c r="H21" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39">
+      <c r="AF27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39">
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39">
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39">
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39">
+      <c r="Y32" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
